--- a/Protus_data.xlsx
+++ b/Protus_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,6 +1275,56 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MC2V2RRT0PH101418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12m EV Staff Bus-Endurance-B-0004 </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ramanand Pawale</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Verification</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12M EV Staff AC bus_V1_ Quality_ Grease leakage from front axle LHS wheel end</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
